--- a/presentation/Devis.xlsx
+++ b/presentation/Devis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yncrea-my.sharepoint.com/personal/hugo_demenez_isen_yncrea_fr/Documents/Projet/Projet_2021_Informatique/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{83E689D9-391C-4A2A-8C25-9751A7AD3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{670A9F4C-E16D-4D79-A503-1F6F4D1E62C6}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{83E689D9-391C-4A2A-8C25-9751A7AD3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B1BCC09-A717-47D8-ABE9-BF4CFF2F1071}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,9 +71,6 @@
  MOINS LES REMISES</t>
   </si>
   <si>
-    <t>TAUX D'IMPOSITION</t>
-  </si>
-  <si>
     <t>TAXE TOTAL</t>
   </si>
   <si>
@@ -116,13 +113,16 @@
     <t>Monsieur Thierry Occre</t>
   </si>
   <si>
-    <t>Le projet a duré 1 mois. Il sera livré dans les délais allant de 7 à 14 jours à partir de la date de paiment.  En tant que premier client vous beneficiez d'une remise exceptionnelle de 15% (valable uniquement sur ce devis).</t>
-  </si>
-  <si>
     <t>Sauvegardes sur 3 serveurs (Paris, Montréal, Berlin)</t>
   </si>
   <si>
     <t>Maintenance sur 2 ans</t>
+  </si>
+  <si>
+    <t>TVA</t>
+  </si>
+  <si>
+    <t>Le projet a duré 1 mois. Il sera livré dans les délais allant de 7 à 14 jours à partir de la date de paiement.  En tant que premier client vous beneficiez d'une remise exceptionnelle de 15% (valable uniquement sur ce devis).</t>
   </si>
 </sst>
 </file>
@@ -473,9 +473,6 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -528,34 +525,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -607,91 +584,114 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,495 +1136,490 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B36" sqref="B36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="9"/>
+    <col min="1" max="1" width="8.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10"/>
-      <c r="B2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12"/>
-      <c r="B3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="36"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
-      <c r="B4" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9"/>
+      <c r="B15" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9"/>
+      <c r="B16" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="47">
         <v>1</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="12"/>
-      <c r="B15" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="12"/>
-      <c r="B16" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="60">
-        <v>1</v>
-      </c>
-      <c r="E16" s="61">
+      <c r="E16" s="48">
         <v>2000</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="48">
         <f t="shared" ref="F16:F26" si="0">D16*E16</f>
         <v>2000</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12"/>
-      <c r="B17" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="63">
+      <c r="A17" s="9"/>
+      <c r="B17" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="49">
         <v>1</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="50">
         <v>500</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="50">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12"/>
-      <c r="B18" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="66">
+      <c r="A18" s="9"/>
+      <c r="B18" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="51">
         <v>1</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="52">
         <v>2500</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="52">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="12"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64">
+      <c r="A19" s="9"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67">
+      <c r="A20" s="9"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="12"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64">
+      <c r="A21" s="9"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="12"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67">
+      <c r="A22" s="9"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="12"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64">
+      <c r="A23" s="9"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="12"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67">
+      <c r="A24" s="9"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="12"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64">
+      <c r="A25" s="9"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="12"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68">
+      <c r="A26" s="9"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="12"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="58">
         <f>SUM(F16:F26)</f>
         <v>5000</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A28" s="12"/>
-      <c r="B28" s="74" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="73">
+      <c r="F28" s="58">
         <f>0.15*F27</f>
         <v>750</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A29" s="12"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F29" s="58">
         <f>F27-F28</f>
         <v>4250</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A30" s="12"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A31" s="9"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="75">
-        <v>0.27</v>
-      </c>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A31" s="12"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72" t="s">
+      <c r="F31" s="58">
+        <f>F29*F30</f>
+        <v>850</v>
+      </c>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A32" s="9"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="60" t="s">
         <v>13</v>
-      </c>
-      <c r="F31" s="73">
-        <f>F29*F30</f>
-        <v>1147.5</v>
-      </c>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A32" s="12"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="77" t="s">
-        <v>14</v>
       </c>
       <c r="F32" s="3">
         <f>F29+F31</f>
-        <v>5397.5</v>
-      </c>
-      <c r="G32" s="24"/>
+        <v>5100</v>
+      </c>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="12"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="25"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="25"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="26"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="16"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="30"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C31"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B22:C22"/>
@@ -1633,11 +1628,16 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B33:F33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1655,503 +1655,504 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="9"/>
+    <col min="1" max="1" width="8.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10"/>
-      <c r="B2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12"/>
-      <c r="B3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="36"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
-      <c r="B4" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9"/>
+      <c r="B15" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9"/>
+      <c r="B16" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="47">
         <v>1</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="12"/>
-      <c r="B15" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="12"/>
-      <c r="B16" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="60">
-        <v>1</v>
-      </c>
-      <c r="E16" s="61">
+      <c r="E16" s="48">
         <v>2000</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="48">
         <f t="shared" ref="F16:F26" si="0">D16*E16</f>
         <v>2000</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12"/>
-      <c r="B17" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="63">
+      <c r="A17" s="9"/>
+      <c r="B17" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="49">
         <v>1</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="50">
         <v>1000</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="50">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12"/>
-      <c r="B18" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="66">
+      <c r="A18" s="9"/>
+      <c r="B18" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="51">
         <v>1</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="52">
         <v>2500</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="52">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="12"/>
-      <c r="B19" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="63">
+      <c r="A19" s="9"/>
+      <c r="B19" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="49">
         <v>1</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="50">
         <v>300</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="50">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12"/>
-      <c r="B20" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="66">
+      <c r="A20" s="9"/>
+      <c r="B20" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="51">
         <v>1</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="52">
         <v>850</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="52">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="12"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64">
+      <c r="A21" s="9"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="12"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67">
+      <c r="A22" s="9"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="12"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64">
+      <c r="A23" s="9"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="12"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67">
+      <c r="A24" s="9"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="12"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64">
+      <c r="A25" s="9"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="12"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68">
+      <c r="A26" s="9"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="12"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="58">
         <f>SUM(F16:F26)</f>
         <v>6650</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A28" s="12"/>
-      <c r="B28" s="74" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="73">
+      <c r="F28" s="58">
         <f>0.15*F27</f>
         <v>997.5</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A29" s="12"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F29" s="58">
         <f>F27-F28</f>
         <v>5652.5</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A30" s="12"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A31" s="9"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="75">
-        <v>0.27</v>
-      </c>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A31" s="12"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72" t="s">
+      <c r="F31" s="58">
+        <f>F29*F30</f>
+        <v>1130.5</v>
+      </c>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A32" s="9"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="60" t="s">
         <v>13</v>
-      </c>
-      <c r="F31" s="73">
-        <f>F29*F30</f>
-        <v>1526.1750000000002</v>
-      </c>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A32" s="12"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="77" t="s">
-        <v>14</v>
       </c>
       <c r="F32" s="3">
         <f>F29+F31</f>
-        <v>7178.6750000000002</v>
-      </c>
-      <c r="G32" s="24"/>
+        <v>6783</v>
+      </c>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="12"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="25"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="25"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="26"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="16"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="30"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B28:C31"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -2164,12 +2165,11 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/presentation/Devis.xlsx
+++ b/presentation/Devis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yncrea-my.sharepoint.com/personal/hugo_demenez_isen_yncrea_fr/Documents/Projet/Projet_2021_Informatique/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{83E689D9-391C-4A2A-8C25-9751A7AD3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B1BCC09-A717-47D8-ABE9-BF4CFF2F1071}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{83E689D9-391C-4A2A-8C25-9751A7AD3F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AD103E2-0EFF-4FD6-8846-58718D9ADDB5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,16 +113,16 @@
     <t>Monsieur Thierry Occre</t>
   </si>
   <si>
-    <t>Sauvegardes sur 3 serveurs (Paris, Montréal, Berlin)</t>
-  </si>
-  <si>
-    <t>Maintenance sur 2 ans</t>
-  </si>
-  <si>
     <t>TVA</t>
   </si>
   <si>
     <t>Le projet a duré 1 mois. Il sera livré dans les délais allant de 7 à 14 jours à partir de la date de paiement.  En tant que premier client vous beneficiez d'une remise exceptionnelle de 15% (valable uniquement sur ce devis).</t>
+  </si>
+  <si>
+    <t>Sauvegardes sur 2 serveurs à Paris et Montréal</t>
+  </si>
+  <si>
+    <t>Maintenance sur 3 ans</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -638,6 +638,40 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -651,7 +685,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,39 +692,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,23 +1163,23 @@
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="68"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="26"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="27"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
@@ -1186,10 +1187,10 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="27"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
@@ -1197,8 +1198,8 @@
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="27"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
@@ -1305,10 +1306,10 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9"/>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="79"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="45" t="s">
         <v>5</v>
       </c>
@@ -1322,10 +1323,10 @@
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9"/>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="47">
         <v>1</v>
       </c>
@@ -1340,10 +1341,10 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9"/>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="49">
         <v>1</v>
       </c>
@@ -1358,10 +1359,10 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="51">
         <v>1</v>
       </c>
@@ -1376,8 +1377,8 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="49"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50">
@@ -1388,8 +1389,8 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
       <c r="F20" s="52">
@@ -1400,8 +1401,8 @@
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="49"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50">
@@ -1412,8 +1413,8 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52"/>
       <c r="F22" s="52">
@@ -1424,8 +1425,8 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="49"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50">
@@ -1436,8 +1437,8 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="51"/>
       <c r="E24" s="52"/>
       <c r="F24" s="52">
@@ -1448,8 +1449,8 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50">
@@ -1460,8 +1461,8 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="9"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
       <c r="F26" s="53">
@@ -1486,10 +1487,10 @@
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A28" s="9"/>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="56"/>
       <c r="E28" s="57" t="s">
         <v>10</v>
@@ -1502,8 +1503,8 @@
     </row>
     <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A29" s="9"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="56"/>
       <c r="E29" s="57" t="s">
         <v>11</v>
@@ -1516,11 +1517,11 @@
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A30" s="9"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="56"/>
       <c r="E30" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F30" s="59">
         <v>0.2</v>
@@ -1529,8 +1530,8 @@
     </row>
     <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A31" s="9"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="56"/>
       <c r="E31" s="57" t="s">
         <v>12</v>
@@ -1543,8 +1544,8 @@
     </row>
     <row r="32" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A32" s="9"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="56"/>
       <c r="E32" s="60" t="s">
         <v>13</v>
@@ -1557,11 +1558,11 @@
     </row>
     <row r="33" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="9"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1577,31 +1578,31 @@
     </row>
     <row r="35" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
+      <c r="B35" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
       <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1615,11 +1616,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C31"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B22:C22"/>
@@ -1628,16 +1634,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1655,7 +1656,7 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:F36"/>
     </sheetView>
   </sheetViews>
@@ -1682,23 +1683,23 @@
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="68"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="26"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="27"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
@@ -1706,10 +1707,10 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="27"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
@@ -1717,8 +1718,8 @@
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="27"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
@@ -1825,10 +1826,10 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9"/>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="79"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="45" t="s">
         <v>5</v>
       </c>
@@ -1842,10 +1843,10 @@
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9"/>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="47">
         <v>1</v>
       </c>
@@ -1860,10 +1861,10 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9"/>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="49">
         <v>1</v>
       </c>
@@ -1878,10 +1879,10 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="51">
         <v>1</v>
       </c>
@@ -1896,10 +1897,10 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9"/>
-      <c r="B19" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="73"/>
+      <c r="B19" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="85"/>
       <c r="D19" s="49">
         <v>1</v>
       </c>
@@ -1914,26 +1915,26 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9"/>
-      <c r="B20" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="73"/>
+      <c r="B20" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="74"/>
       <c r="D20" s="51">
         <v>1</v>
       </c>
       <c r="E20" s="52">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="52">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="49"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50">
@@ -1944,8 +1945,8 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52"/>
       <c r="F22" s="52">
@@ -1956,8 +1957,8 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="49"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50">
@@ -1968,8 +1969,8 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="51"/>
       <c r="E24" s="52"/>
       <c r="F24" s="52">
@@ -1980,8 +1981,8 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50">
@@ -1992,8 +1993,8 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="9"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
       <c r="F26" s="53">
@@ -2012,47 +2013,47 @@
       </c>
       <c r="F27" s="58">
         <f>SUM(F16:F26)</f>
-        <v>6650</v>
+        <v>7000</v>
       </c>
       <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A28" s="9"/>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="56"/>
       <c r="E28" s="57" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="58">
         <f>0.15*F27</f>
-        <v>997.5</v>
+        <v>1050</v>
       </c>
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A29" s="9"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="56"/>
       <c r="E29" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="58">
         <f>F27-F28</f>
-        <v>5652.5</v>
+        <v>5950</v>
       </c>
       <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A30" s="9"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="56"/>
       <c r="E30" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F30" s="59">
         <v>0.2</v>
@@ -2061,39 +2062,39 @@
     </row>
     <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A31" s="9"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="56"/>
       <c r="E31" s="57" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="58">
         <f>F29*F30</f>
-        <v>1130.5</v>
+        <v>1190</v>
       </c>
       <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A32" s="9"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="56"/>
       <c r="E32" s="60" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="3">
         <f>F29+F31</f>
-        <v>6783</v>
+        <v>7140</v>
       </c>
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="9"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2109,31 +2110,31 @@
     </row>
     <row r="35" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
+      <c r="B35" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
       <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2147,12 +2148,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="B28:C31"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -2165,11 +2165,12 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
